--- a/Subnets.xlsx
+++ b/Subnets.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>Area</t>
   </si>
@@ -39,13 +39,16 @@
     <t xml:space="preserve">Links to</t>
   </si>
   <si>
+    <t xml:space="preserve">OSPF Area</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nota: redes entre AS diferentes são sempre os do tier acima</t>
   </si>
   <si>
-    <t xml:space="preserve">AS 1000</t>
-  </si>
-  <si>
-    <t>R-1000-A</t>
+    <t xml:space="preserve">AS 1001</t>
+  </si>
+  <si>
+    <t>R-1001-A</t>
   </si>
   <si>
     <t>f0/0</t>
@@ -60,6 +63,9 @@
     <t xml:space="preserve">R-1000-B (f2/0)</t>
   </si>
   <si>
+    <t xml:space="preserve">area 2</t>
+  </si>
+  <si>
     <t>f0/1</t>
   </si>
   <si>
@@ -84,7 +90,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>R-1000-B</t>
+    <t>R-1001-B</t>
   </si>
   <si>
     <t>130.0.0.9/30</t>
@@ -96,6 +102,9 @@
     <t xml:space="preserve">R-1000-D (f0/0)</t>
   </si>
   <si>
+    <t xml:space="preserve">area 1</t>
+  </si>
+  <si>
     <t>f1/0</t>
   </si>
   <si>
@@ -141,7 +150,7 @@
     <t>2221:2566:1:1000::B/64</t>
   </si>
   <si>
-    <t>R-1000-C</t>
+    <t>R-1001-C</t>
   </si>
   <si>
     <t>130.0.0.21/30</t>
@@ -186,7 +195,7 @@
     <t>2221:2566:1:1000::C/64</t>
   </si>
   <si>
-    <t>R-1000-D</t>
+    <t>R-1001-D</t>
   </si>
   <si>
     <t>130.0.0.10/30</t>
@@ -225,6 +234,9 @@
     <t xml:space="preserve">R-1000-F (f0/1)</t>
   </si>
   <si>
+    <t xml:space="preserve">area 0</t>
+  </si>
+  <si>
     <t>f2/1</t>
   </si>
   <si>
@@ -243,7 +255,7 @@
     <t>2221:2566:1:1000::D/64</t>
   </si>
   <si>
-    <t>R-1000-E</t>
+    <t>R-1001-E</t>
   </si>
   <si>
     <t>130.0.0.22/30</t>
@@ -297,7 +309,7 @@
     <t>2221:2566:1:1000::E/64</t>
   </si>
   <si>
-    <t>R-1000-F</t>
+    <t>R-1001-F</t>
   </si>
   <si>
     <t>130.0.1.1/30</t>
@@ -342,7 +354,7 @@
     <t>2221:2566:1:1000::F/64</t>
   </si>
   <si>
-    <t>R-1000-G</t>
+    <t>R-1001-G</t>
   </si>
   <si>
     <t>130.0.1.5/30</t>
@@ -387,7 +399,7 @@
     <t>2221:2566:1:1000::1F/64</t>
   </si>
   <si>
-    <t>R-1000-H</t>
+    <t>R-1001-H</t>
   </si>
   <si>
     <t>130.0.3.1/30</t>
@@ -432,7 +444,7 @@
     <t>2221:2566:1:1000::2F/64</t>
   </si>
   <si>
-    <t>R-1000-I</t>
+    <t>R-1001-I</t>
   </si>
   <si>
     <t>130.0.3.5/30</t>
@@ -475,6 +487,18 @@
   </si>
   <si>
     <t>2221:2566:1:1000::3F/64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS 1002</t>
+  </si>
+  <si>
+    <t>R-1002-A</t>
+  </si>
+  <si>
+    <t>R-1002-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS 1003</t>
   </si>
   <si>
     <t xml:space="preserve">AS 2001</t>
@@ -946,7 +970,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -979,8 +1003,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFE9B3"/>
+        <bgColor rgb="FFFFE9B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC66"/>
         <bgColor theme="0" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor rgb="FFFFCC66"/>
       </patternFill>
     </fill>
     <fill>
@@ -1116,7 +1152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -1139,11 +1175,126 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="86">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,56 +1303,137 @@
     <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="1" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="2" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="6" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="5" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="10" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="10" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="11" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="11" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="12" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,23 +1447,26 @@
     <xf fontId="0" fillId="13" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="13" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="14" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="14" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="15" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="1" fillId="14" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="15" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="16" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="15" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="16" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="16" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="17" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1239,26 +1474,20 @@
     <xf fontId="0" fillId="17" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="18" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="18" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="18" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="19" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="19" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="19" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="20" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="20" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="1" fillId="21" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="21" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,40 +1498,55 @@
     <xf fontId="0" fillId="22" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="22" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="1" fillId="23" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="23" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="24" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="24" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="24" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="25" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="25" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="26" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="25" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="27" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="25" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="27" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="26" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="26" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="3" fillId="27" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="3" fillId="27" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="27" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="28" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="28" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="29" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="29" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="29" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="30" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="30" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1812,13 +2056,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="145" workbookViewId="0">
       <selection activeCell="F50" activeCellId="0" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" style="1" width="9.140625"/>
+    <col min="1" max="12" style="1" width="9.140625"/>
+    <col customWidth="1" min="13" max="13" style="1" width="9.7109375"/>
+    <col min="14" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1858,1058 +2104,1896 @@
         <v>5</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="N2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="B3" s="5" t="s">
-        <v>7</v>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="3"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="3"/>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="3"/>
+      <c r="C16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="3"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="3"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="3"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="3"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="3"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="3"/>
+      <c r="C22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="3"/>
+      <c r="C28" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="3"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="3"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="3"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="3"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="3"/>
+      <c r="C33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="3"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="3"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="3"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="3"/>
+      <c r="C38" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="3"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L39" s="19"/>
+      <c r="M39" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="3"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L40" s="19"/>
+      <c r="M40" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="3"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="L41" s="19"/>
+      <c r="M41" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="3"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="19"/>
+      <c r="M42" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="3"/>
+      <c r="C43" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="3"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="3"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="3"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1"/>
+    <row r="49" ht="14.25">
+      <c r="B49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="26"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="27"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="B50" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="L50" s="33"/>
+      <c r="M50" s="34"/>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="B51" s="35"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8" t="s">
+      <c r="E51" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="L51" s="33"/>
+      <c r="M51" s="34"/>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8" t="s">
+      <c r="E52" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="5"/>
-      <c r="C6" s="9" t="s">
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11" t="s">
+      <c r="L52" s="33"/>
+      <c r="M52" s="34"/>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="B53" s="35"/>
+      <c r="C53" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="5"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
+      <c r="F53" s="39"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="I53" s="39"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11" t="s">
+      <c r="L53" s="41"/>
+      <c r="M53" s="34"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="B54" s="35"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="5"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="E54" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F54" s="39"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
+      <c r="I54" s="39"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="4" t="s">
+      <c r="L54" s="41"/>
+      <c r="M54" s="34"/>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="B55" s="35"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="5"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="F55" s="39"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="I55" s="39"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="L55" s="41"/>
+      <c r="M55" s="34"/>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="B58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="B59" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="31"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="31"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="33"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="B60" s="35"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="31"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11" t="s">
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="33"/>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="B61" s="35"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F61" s="31"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="33"/>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="B62" s="35"/>
+      <c r="C62" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="39"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" s="39"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" s="41"/>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="B63" s="35"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="39"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" s="39"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="41"/>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="B64" s="35"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="F64" s="39"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="5"/>
-      <c r="C16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="5"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="5"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="5"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="5"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="5"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="5"/>
-      <c r="C28" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="5"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="5"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="5"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="5"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L35" s="8"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L36" s="8"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="5"/>
-      <c r="C38" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="5"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="5"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="5"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="5"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="5"/>
-      <c r="C43" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="L43" s="8"/>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L45" s="8"/>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L46" s="8"/>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" ht="15" customHeight="1"/>
-    <row r="87" ht="15" customHeight="1"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="41"/>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" ht="15" customHeight="1">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+    </row>
     <row r="96">
-      <c r="A96" s="13"/>
+      <c r="A96" s="44"/>
     </row>
     <row r="97">
-      <c r="A97" s="13"/>
+      <c r="A97" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="150">
+  <mergeCells count="199">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:Q4"/>
+    <mergeCell ref="O2:R4"/>
     <mergeCell ref="B3:B47"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="E3:G3"/>
@@ -2931,7 +4015,7 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:Q11"/>
+    <mergeCell ref="O8:R11"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
@@ -3056,6 +4140,55 @@
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="K47:L47"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:M55"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
@@ -3077,459 +4210,459 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3">
-      <c r="B3" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" s="20"/>
+      <c r="B3" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="51"/>
     </row>
     <row r="4">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L4" s="20"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="51"/>
     </row>
     <row r="5">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" s="20"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="51"/>
     </row>
     <row r="6">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="20"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="51"/>
     </row>
     <row r="7">
-      <c r="B7" s="16"/>
-      <c r="C7" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="24"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="55"/>
     </row>
     <row r="8">
-      <c r="B8" s="16"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L8" s="24"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="55"/>
     </row>
     <row r="9">
-      <c r="B9" s="16"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="L9" s="24"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="L9" s="55"/>
     </row>
     <row r="10">
-      <c r="B10" s="16"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="L10" s="24"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="55"/>
     </row>
     <row r="11">
-      <c r="B11" s="16"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="L11" s="24"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" s="55"/>
     </row>
     <row r="12">
-      <c r="B12" s="16"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="L12" s="24"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="L12" s="55"/>
     </row>
     <row r="13">
-      <c r="B13" s="16"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="24"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="55"/>
     </row>
     <row r="14">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="L14" s="20"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="51"/>
     </row>
     <row r="15">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="L15" s="20"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="L15" s="51"/>
     </row>
     <row r="16">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="L16" s="20"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" s="51"/>
     </row>
     <row r="17">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="L17" s="20"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="51"/>
     </row>
     <row r="18">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="20"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="51"/>
     </row>
     <row r="19">
-      <c r="B19" s="16"/>
-      <c r="C19" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="L19" s="24"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="L19" s="55"/>
     </row>
     <row r="20">
-      <c r="B20" s="16"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="L20" s="24"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="L20" s="55"/>
     </row>
     <row r="21">
-      <c r="B21" s="16"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="L21" s="24"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" s="55"/>
     </row>
     <row r="22">
-      <c r="B22" s="16"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="24"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="68">
@@ -3622,289 +4755,289 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="27"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3">
-      <c r="B3" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="L3" s="30"/>
+      <c r="B3" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" s="61"/>
     </row>
     <row r="4">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="L4" s="30"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="61"/>
     </row>
     <row r="5">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="30"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="61"/>
     </row>
     <row r="6">
-      <c r="B6" s="27"/>
-      <c r="C6" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="L6" s="32"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="L6" s="63"/>
     </row>
     <row r="7">
-      <c r="B7" s="27"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" s="32"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="L7" s="63"/>
     </row>
     <row r="8">
-      <c r="B8" s="27"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="L8" s="32"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="L8" s="63"/>
     </row>
     <row r="9">
-      <c r="B9" s="27"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="32"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="63"/>
     </row>
     <row r="10">
-      <c r="B10" s="27"/>
-      <c r="C10" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="L10" s="29"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="L10" s="60"/>
     </row>
     <row r="11">
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="L11" s="29"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="L11" s="60"/>
     </row>
     <row r="12">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="L12" s="29"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="L12" s="60"/>
     </row>
     <row r="13">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="L13" s="29"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="L13" s="60"/>
     </row>
     <row r="14">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="29"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -3972,117 +5105,117 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3">
-      <c r="B3" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="L3" s="37"/>
+      <c r="B3" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="L3" s="68"/>
     </row>
     <row r="4">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="L4" s="37"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="68"/>
     </row>
     <row r="5">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="L5" s="37"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="L5" s="68"/>
     </row>
     <row r="6">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="37"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4124,96 +5257,96 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40" t="s">
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40" t="s">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3">
-      <c r="B3" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="L3" s="42"/>
+      <c r="B3" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="L3" s="73"/>
     </row>
     <row r="4">
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="L4" s="42"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="73"/>
     </row>
     <row r="5">
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="42"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4252,161 +5385,161 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="44"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3">
-      <c r="B3" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="L3" s="47"/>
+      <c r="B3" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="L3" s="78"/>
     </row>
     <row r="4">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="L4" s="47"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="L4" s="78"/>
     </row>
     <row r="5">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="47"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="78"/>
     </row>
     <row r="6">
-      <c r="B6" s="45"/>
-      <c r="C6" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49" t="s">
-        <v>278</v>
-      </c>
-      <c r="L6" s="49"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="79" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="L6" s="80"/>
     </row>
     <row r="7">
-      <c r="B7" s="45"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="L7" s="49"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7" s="80"/>
     </row>
     <row r="8">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="49"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4455,96 +5588,96 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51" t="s">
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="51"/>
+      <c r="L2" s="82"/>
     </row>
     <row r="3">
-      <c r="B3" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="L3" s="54"/>
+      <c r="B3" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85" t="s">
+        <v>300</v>
+      </c>
+      <c r="L3" s="85"/>
     </row>
     <row r="4">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L4" s="54"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85" t="s">
+        <v>303</v>
+      </c>
+      <c r="L4" s="85"/>
     </row>
     <row r="5">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="54"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Subnets.xlsx
+++ b/Subnets.xlsx
@@ -624,7 +624,7 @@
     <t>2221:2566:1:1113::1/64</t>
   </si>
   <si>
-    <t>FE80::1112:B3F:1</t>
+    <t>FE80::1113:B3F:1</t>
   </si>
   <si>
     <t xml:space="preserve">R-1003-B (f0/1)</t>
@@ -2664,7 +2664,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="145" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="145" workbookViewId="0">
       <selection activeCell="F50" activeCellId="0" sqref="F50"/>
     </sheetView>
   </sheetViews>

--- a/Subnets.xlsx
+++ b/Subnets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AS1000" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
   <si>
     <t xml:space="preserve">AS 1001</t>
   </si>
@@ -576,454 +576,457 @@
     <t>130.0.3.5/30</t>
   </si>
   <si>
+    <t>2221:2566:1:1130::1/64</t>
+  </si>
+  <si>
+    <t>R-2002-A(f0/0)</t>
+  </si>
+  <si>
+    <t>130.0.0.46/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:12::2/64</t>
+  </si>
+  <si>
+    <t>FE80::1000:E3F:2</t>
+  </si>
+  <si>
+    <t>R-1001-E(f2/1)</t>
+  </si>
+  <si>
+    <t>130.0.0.58/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:15::2/64</t>
+  </si>
+  <si>
+    <t>FE80::1000:1F3F:2</t>
+  </si>
+  <si>
+    <t>R-1001-G(f1/0)</t>
+  </si>
+  <si>
+    <t>130.0.0.62/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:16::2/64</t>
+  </si>
+  <si>
+    <t>FE80::1000:2F3F:2</t>
+  </si>
+  <si>
+    <t>R-1001-H(f2/0)</t>
+  </si>
+  <si>
+    <t>130.0.113.1/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:1113::1/64</t>
+  </si>
+  <si>
+    <t>FE80::1113:B3F:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-1003-B (f0/1)</t>
+  </si>
+  <si>
+    <t>130.0.255.9/32</t>
+  </si>
+  <si>
+    <t>2221:2566:1:1000::3F/128</t>
+  </si>
+  <si>
+    <t>FE80::1000:3F:1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS 1002</t>
+  </si>
+  <si>
+    <t>R-1002-A</t>
+  </si>
+  <si>
+    <t>130.0.102.1/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:1002::1/64</t>
+  </si>
+  <si>
+    <t>FE80::1002:AB:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-1002-B (f0/0)</t>
+  </si>
+  <si>
+    <t>130.0.123.1/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:1123::1/64</t>
+  </si>
+  <si>
+    <t>FE80::1123:1</t>
+  </si>
+  <si>
+    <t>Sw-1000</t>
+  </si>
+  <si>
+    <t>130.0.102.250/32</t>
+  </si>
+  <si>
+    <t>2221:2566:1:102::A/128</t>
+  </si>
+  <si>
+    <t>FE80::1002:A:1</t>
+  </si>
+  <si>
+    <t>R-1002-B</t>
+  </si>
+  <si>
+    <t>130.0.102.2/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:1002::2/64</t>
+  </si>
+  <si>
+    <t>FE80::1002:AB:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-1002-A (f0/0)</t>
+  </si>
+  <si>
+    <t>130.0.112.2/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:1112::2/64</t>
+  </si>
+  <si>
+    <t>FE80::1112:BF:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-1000-F (f1/0)</t>
+  </si>
+  <si>
+    <t>130.0.102.251/32</t>
+  </si>
+  <si>
+    <t>2221:2566:1:102::B/128</t>
+  </si>
+  <si>
+    <t>FE80::1002:B:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS 1003</t>
+  </si>
+  <si>
+    <t>R-1003-A</t>
+  </si>
+  <si>
+    <t>130.0.103.1/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:1003::1/64</t>
+  </si>
+  <si>
+    <t>FE80::1003:AB:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-1003-B (f0/0)</t>
+  </si>
+  <si>
+    <t>130.0.123.2/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:1123::2/64</t>
+  </si>
+  <si>
+    <t>FE80::1123:2</t>
+  </si>
+  <si>
+    <t>130.0.103.250/32</t>
+  </si>
+  <si>
+    <t>2221:2566:1:103::A/128</t>
+  </si>
+  <si>
+    <t>FE80::1003:A:1</t>
+  </si>
+  <si>
+    <t>R-1003-B</t>
+  </si>
+  <si>
+    <t>130.0.103.2/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:1003::2/64</t>
+  </si>
+  <si>
+    <t>FE80::1003:AB:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-1003-A (f0/0)</t>
+  </si>
+  <si>
+    <t>130.0.113.2/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:1113::2/64</t>
+  </si>
+  <si>
+    <t>FE80::1113:B3F:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-1000-I (f1/0)</t>
+  </si>
+  <si>
+    <t>130.0.103.251/32</t>
+  </si>
+  <si>
+    <t>2221:2566:1:103::B/128</t>
+  </si>
+  <si>
+    <t>FE80::1003:B:1</t>
+  </si>
+  <si>
+    <t>R-2001-A</t>
+  </si>
+  <si>
+    <t>131.0.0.1/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:1::1/64</t>
+  </si>
+  <si>
+    <t>FE80::2001:AD:1</t>
+  </si>
+  <si>
+    <t>R-2001-D(f0/0)</t>
+  </si>
+  <si>
+    <t>131.0.0.5/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:2::1/64</t>
+  </si>
+  <si>
+    <t>FE80::2001:AB:1</t>
+  </si>
+  <si>
+    <t>R-2001-B(f0/1)</t>
+  </si>
+  <si>
+    <t>131.0.200.1/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:10::1/64</t>
+  </si>
+  <si>
+    <t>FE80::2001:FA:1</t>
+  </si>
+  <si>
+    <t>R-FILIAL-A(f0/1)</t>
+  </si>
+  <si>
+    <t>131.0.255.1/32</t>
+  </si>
+  <si>
+    <t>2221:2566:2:2001::A/128</t>
+  </si>
+  <si>
+    <t>FE80::2001:A:1</t>
+  </si>
+  <si>
+    <t>R-2001-B</t>
+  </si>
+  <si>
+    <t>131.0.0.9/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:3::1/64</t>
+  </si>
+  <si>
+    <t>FE80::2001:BC:1</t>
+  </si>
+  <si>
+    <t>R-2001-C(f0/0)</t>
+  </si>
+  <si>
+    <t>131.0.0.6/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:2::2/64</t>
+  </si>
+  <si>
+    <t>FE80::2001:AB:2</t>
+  </si>
+  <si>
+    <t>R-2001-A(f0/1)</t>
+  </si>
+  <si>
+    <t>130.0.1.6/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:1120::2/64</t>
+  </si>
+  <si>
+    <t>FE80::1000:2001:2</t>
+  </si>
+  <si>
+    <t>R-1000-G(f0/0)</t>
+  </si>
+  <si>
+    <t>130.0.1.2/30</t>
+  </si>
+  <si>
+    <t>2221:2566:1:1020::2/64</t>
+  </si>
+  <si>
+    <t>R-1000-F(f0/0)</t>
+  </si>
+  <si>
+    <t>131.0.4.1/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:2040::1/64</t>
+  </si>
+  <si>
+    <t>FE80::2001:3001:1</t>
+  </si>
+  <si>
+    <t>R-3001-A(f0/0)</t>
+  </si>
+  <si>
+    <t>131.0.5.1/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:2050::1/64</t>
+  </si>
+  <si>
+    <t>FE80::2001:3002:1</t>
+  </si>
+  <si>
+    <t>R-3002-A(f0/0)</t>
+  </si>
+  <si>
+    <t>131.0.255.2/32</t>
+  </si>
+  <si>
+    <t>2221:2566:2:2001::B/128</t>
+  </si>
+  <si>
+    <t>FE80::2001:B:1</t>
+  </si>
+  <si>
+    <t>R-2001-C</t>
+  </si>
+  <si>
+    <t>131.0.0.10/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:3::2/64</t>
+  </si>
+  <si>
+    <t>FE80::2001:BC:2</t>
+  </si>
+  <si>
+    <t>R-2001-B(f0/0)</t>
+  </si>
+  <si>
+    <t>131.0.0.13/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:4::1/64</t>
+  </si>
+  <si>
+    <t>FE80::2001:DC:1</t>
+  </si>
+  <si>
+    <t>R-2001-D(f0/1)</t>
+  </si>
+  <si>
+    <t>131.0.4.5/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:2140::1/64</t>
+  </si>
+  <si>
+    <t>R-3001-A(f0/1)</t>
+  </si>
+  <si>
+    <t>131.0.150.1/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:11::1/64</t>
+  </si>
+  <si>
+    <t>FE80::2001:CEDE:1</t>
+  </si>
+  <si>
+    <t>R-SEDE-B(f0/0)</t>
+  </si>
+  <si>
+    <t>131.0.255.3/32</t>
+  </si>
+  <si>
+    <t>2221:2566:2:2001::C/128</t>
+  </si>
+  <si>
+    <t>FE80::2001:C:1</t>
+  </si>
+  <si>
+    <t>R-2001-D</t>
+  </si>
+  <si>
+    <t>131.0.0.2/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:1::2/64</t>
+  </si>
+  <si>
+    <t>FE80::2001:AD:2</t>
+  </si>
+  <si>
+    <t>R-2001-A(f0/0)</t>
+  </si>
+  <si>
+    <t>131.0.0.14/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:4::2/64</t>
+  </si>
+  <si>
+    <t>R-2001-C(f0/1)</t>
+  </si>
+  <si>
+    <t>131.0.100.1/30</t>
+  </si>
+  <si>
+    <t>2221:2566:2:12::1/64</t>
+  </si>
+  <si>
+    <t>R-SEDE-A(f0/0)</t>
+  </si>
+  <si>
+    <t>131.0.255.4/32</t>
+  </si>
+  <si>
+    <t>2221:2566:2:2001::D/128</t>
+  </si>
+  <si>
+    <t>FE80::2001:D:1</t>
+  </si>
+  <si>
+    <t>R-2002-A</t>
+  </si>
+  <si>
+    <t>130.0.3.6/30</t>
+  </si>
+  <si>
     <t>2221:2566:1:1130::2/64</t>
-  </si>
-  <si>
-    <t>R-2002-A(f0/0)</t>
-  </si>
-  <si>
-    <t>130.0.0.46/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:12::2/64</t>
-  </si>
-  <si>
-    <t>FE80::1000:E3F:2</t>
-  </si>
-  <si>
-    <t>R-1001-E(f2/1)</t>
-  </si>
-  <si>
-    <t>130.0.0.58/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:15::2/64</t>
-  </si>
-  <si>
-    <t>FE80::1000:1F3F:2</t>
-  </si>
-  <si>
-    <t>R-1001-G(f1/0)</t>
-  </si>
-  <si>
-    <t>130.0.0.62/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:16::2/64</t>
-  </si>
-  <si>
-    <t>FE80::1000:2F3F:2</t>
-  </si>
-  <si>
-    <t>R-1001-H(f2/0)</t>
-  </si>
-  <si>
-    <t>130.0.113.1/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:1113::1/64</t>
-  </si>
-  <si>
-    <t>FE80::1113:B3F:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-1003-B (f0/1)</t>
-  </si>
-  <si>
-    <t>130.0.255.9/32</t>
-  </si>
-  <si>
-    <t>2221:2566:1:1000::3F/128</t>
-  </si>
-  <si>
-    <t>FE80::1000:3F:1</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>IPv6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS 1002</t>
-  </si>
-  <si>
-    <t>R-1002-A</t>
-  </si>
-  <si>
-    <t>130.0.102.1/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:1002::1/64</t>
-  </si>
-  <si>
-    <t>FE80::1002:AB:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-1002-B (f0/0)</t>
-  </si>
-  <si>
-    <t>130.0.123.1/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:1123::1/64</t>
-  </si>
-  <si>
-    <t>FE80::1123:1</t>
-  </si>
-  <si>
-    <t>Sw-1000</t>
-  </si>
-  <si>
-    <t>130.0.102.250/32</t>
-  </si>
-  <si>
-    <t>2221:2566:1:102::A/128</t>
-  </si>
-  <si>
-    <t>FE80::1002:A:1</t>
-  </si>
-  <si>
-    <t>R-1002-B</t>
-  </si>
-  <si>
-    <t>130.0.102.2/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:1002::2/64</t>
-  </si>
-  <si>
-    <t>FE80::1002:AB:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-1002-A (f0/0)</t>
-  </si>
-  <si>
-    <t>130.0.112.2/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:1112::2/64</t>
-  </si>
-  <si>
-    <t>FE80::1112:BF:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-1000-F (f1/0)</t>
-  </si>
-  <si>
-    <t>130.0.102.251/32</t>
-  </si>
-  <si>
-    <t>2221:2566:1:102::B/128</t>
-  </si>
-  <si>
-    <t>FE80::1002:B:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS 1003</t>
-  </si>
-  <si>
-    <t>R-1003-A</t>
-  </si>
-  <si>
-    <t>130.0.103.1/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:1003::1/64</t>
-  </si>
-  <si>
-    <t>FE80::1003:AB:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-1003-B (f0/0)</t>
-  </si>
-  <si>
-    <t>130.0.123.2/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:1123::2/64</t>
-  </si>
-  <si>
-    <t>FE80::1123:2</t>
-  </si>
-  <si>
-    <t>130.0.103.250/32</t>
-  </si>
-  <si>
-    <t>2221:2566:1:103::A/128</t>
-  </si>
-  <si>
-    <t>FE80::1003:A:1</t>
-  </si>
-  <si>
-    <t>R-1003-B</t>
-  </si>
-  <si>
-    <t>130.0.103.2/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:1003::2/64</t>
-  </si>
-  <si>
-    <t>FE80::1003:AB:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-1003-A (f0/0)</t>
-  </si>
-  <si>
-    <t>130.0.113.2/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:1113::2/64</t>
-  </si>
-  <si>
-    <t>FE80::1113:B3F:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-1000-I (f1/0)</t>
-  </si>
-  <si>
-    <t>130.0.103.251/32</t>
-  </si>
-  <si>
-    <t>2221:2566:1:103::B/128</t>
-  </si>
-  <si>
-    <t>FE80::1003:B:1</t>
-  </si>
-  <si>
-    <t>R-2001-A</t>
-  </si>
-  <si>
-    <t>131.0.0.1/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:1::1/64</t>
-  </si>
-  <si>
-    <t>FE80::2001:AD:1</t>
-  </si>
-  <si>
-    <t>R-2001-D(f0/0)</t>
-  </si>
-  <si>
-    <t>131.0.0.5/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:2::1/64</t>
-  </si>
-  <si>
-    <t>FE80::2001:AB:1</t>
-  </si>
-  <si>
-    <t>R-2001-B(f0/1)</t>
-  </si>
-  <si>
-    <t>131.0.200.1/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:10::1/64</t>
-  </si>
-  <si>
-    <t>FE80::2001:FA:1</t>
-  </si>
-  <si>
-    <t>R-FILIAL-A(f0/1)</t>
-  </si>
-  <si>
-    <t>131.0.255.1/32</t>
-  </si>
-  <si>
-    <t>2221:2566:2:2001::A/128</t>
-  </si>
-  <si>
-    <t>FE80::2001:A:1</t>
-  </si>
-  <si>
-    <t>R-2001-B</t>
-  </si>
-  <si>
-    <t>131.0.0.9/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:3::1/64</t>
-  </si>
-  <si>
-    <t>FE80::2001:BC:1</t>
-  </si>
-  <si>
-    <t>R-2001-C(f0/0)</t>
-  </si>
-  <si>
-    <t>131.0.0.6/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:2::2/64</t>
-  </si>
-  <si>
-    <t>FE80::2001:AB:2</t>
-  </si>
-  <si>
-    <t>R-2001-A(f0/1)</t>
-  </si>
-  <si>
-    <t>130.0.1.6/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:1120::2/64</t>
-  </si>
-  <si>
-    <t>FE80::1000:2001:2</t>
-  </si>
-  <si>
-    <t>R-1000-G(f0/0)</t>
-  </si>
-  <si>
-    <t>130.0.1.2/30</t>
-  </si>
-  <si>
-    <t>2221:2566:1:1020::2/64</t>
-  </si>
-  <si>
-    <t>R-1000-F(f0/0)</t>
-  </si>
-  <si>
-    <t>131.0.4.1/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:2040::1/64</t>
-  </si>
-  <si>
-    <t>FE80::2001:3001:1</t>
-  </si>
-  <si>
-    <t>R-3001-A(f0/0)</t>
-  </si>
-  <si>
-    <t>131.0.5.1/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:2050::1/64</t>
-  </si>
-  <si>
-    <t>FE80::2001:3002:1</t>
-  </si>
-  <si>
-    <t>R-3002-A(f0/0)</t>
-  </si>
-  <si>
-    <t>131.0.255.2/32</t>
-  </si>
-  <si>
-    <t>2221:2566:2:2001::B/128</t>
-  </si>
-  <si>
-    <t>FE80::2001:B:1</t>
-  </si>
-  <si>
-    <t>R-2001-C</t>
-  </si>
-  <si>
-    <t>131.0.0.10/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:3::2/64</t>
-  </si>
-  <si>
-    <t>FE80::2001:BC:2</t>
-  </si>
-  <si>
-    <t>R-2001-B(f0/0)</t>
-  </si>
-  <si>
-    <t>131.0.0.13/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:4::1/64</t>
-  </si>
-  <si>
-    <t>FE80::2001:DC:1</t>
-  </si>
-  <si>
-    <t>R-2001-D(f0/1)</t>
-  </si>
-  <si>
-    <t>131.0.4.5/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:2140::1/64</t>
-  </si>
-  <si>
-    <t>R-3001-A(f0/1)</t>
-  </si>
-  <si>
-    <t>131.0.150.1/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:11::1/64</t>
-  </si>
-  <si>
-    <t>FE80::2001:CEDE:1</t>
-  </si>
-  <si>
-    <t>R-SEDE-B(f0/0)</t>
-  </si>
-  <si>
-    <t>131.0.255.3/32</t>
-  </si>
-  <si>
-    <t>2221:2566:2:2001::C/128</t>
-  </si>
-  <si>
-    <t>FE80::2001:C:1</t>
-  </si>
-  <si>
-    <t>R-2001-D</t>
-  </si>
-  <si>
-    <t>131.0.0.2/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:1::2/64</t>
-  </si>
-  <si>
-    <t>FE80::2001:AD:2</t>
-  </si>
-  <si>
-    <t>R-2001-A(f0/0)</t>
-  </si>
-  <si>
-    <t>131.0.0.14/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:4::2/64</t>
-  </si>
-  <si>
-    <t>R-2001-C(f0/1)</t>
-  </si>
-  <si>
-    <t>131.0.100.1/30</t>
-  </si>
-  <si>
-    <t>2221:2566:2:12::1/64</t>
-  </si>
-  <si>
-    <t>R-SEDE-A(f0/0)</t>
-  </si>
-  <si>
-    <t>131.0.255.4/32</t>
-  </si>
-  <si>
-    <t>2221:2566:2:2001::D/128</t>
-  </si>
-  <si>
-    <t>FE80::2001:D:1</t>
-  </si>
-  <si>
-    <t>R-2002-A</t>
-  </si>
-  <si>
-    <t>130.0.3.6/30</t>
   </si>
   <si>
     <t>FE80::1000:2002:2</t>
@@ -1784,7 +1787,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1880,9 +1883,15 @@
     <xf fontId="0" fillId="10" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="10" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="11" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="2" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1898,9 +1907,6 @@
     <xf fontId="3" fillId="6" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1916,9 +1922,6 @@
     <xf fontId="3" fillId="8" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="8" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1931,9 +1934,6 @@
     <xf fontId="0" fillId="8" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="8" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="8" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1941,9 +1941,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="8" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2036,6 +2033,9 @@
     </xf>
     <xf fontId="1" fillId="17" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="11" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="11" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2664,7 +2664,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="145" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="145" workbookViewId="0">
       <selection activeCell="F50" activeCellId="0" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -3602,8 +3602,8 @@
         <v>140</v>
       </c>
       <c r="N32" s="32"/>
-      <c r="O32" s="30" t="s">
-        <v>24</v>
+      <c r="O32" s="33" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -3923,7 +3923,7 @@
       <c r="C44" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="25" t="s">
@@ -4028,7 +4028,7 @@
         <v>198</v>
       </c>
       <c r="N47" s="13"/>
-      <c r="O47" s="14" t="s">
+      <c r="O47" s="35" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4056,8 +4056,8 @@
         <v>202</v>
       </c>
       <c r="N48" s="31"/>
-      <c r="O48" s="30" t="s">
-        <v>24</v>
+      <c r="O48" s="33" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="49">
@@ -4105,7 +4105,7 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="36" t="s">
         <v>206</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -4117,12 +4117,12 @@
       <c r="E52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="35"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="3"/>
       <c r="H52" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I52" s="35"/>
+      <c r="I52" s="37"/>
       <c r="J52" s="3"/>
       <c r="K52" s="5" t="s">
         <v>5</v>
@@ -4134,10 +4134,10 @@
       <c r="N52" s="3"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="39" t="s">
         <v>209</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -4146,24 +4146,24 @@
       <c r="E53" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F53" s="38"/>
+      <c r="F53" s="40"/>
       <c r="G53" s="11"/>
       <c r="H53" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="I53" s="38"/>
+      <c r="I53" s="40"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="39" t="s">
+      <c r="K53" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="L53" s="40"/>
+      <c r="L53" s="41"/>
       <c r="M53" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N53" s="40"/>
+      <c r="N53" s="41"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="B54" s="41"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
         <v>15</v>
@@ -4171,50 +4171,50 @@
       <c r="E54" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F54" s="38"/>
+      <c r="F54" s="40"/>
       <c r="G54" s="11"/>
       <c r="H54" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="I54" s="38"/>
+      <c r="I54" s="40"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="39" t="s">
+      <c r="K54" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="L54" s="40"/>
+      <c r="L54" s="41"/>
       <c r="M54" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="N54" s="40"/>
+      <c r="N54" s="41"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F55" s="38"/>
+      <c r="F55" s="40"/>
       <c r="G55" s="11"/>
       <c r="H55" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I55" s="38"/>
+      <c r="I55" s="40"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="39" t="s">
+      <c r="K55" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="L55" s="40"/>
+      <c r="L55" s="41"/>
       <c r="M55" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N55" s="40"/>
+      <c r="N55" s="41"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="B56" s="41"/>
-      <c r="C56" s="43" t="s">
+      <c r="B56" s="42"/>
+      <c r="C56" s="44" t="s">
         <v>221</v>
       </c>
       <c r="D56" s="16" t="s">
@@ -4223,14 +4223,14 @@
       <c r="E56" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="F56" s="44"/>
+      <c r="F56" s="45"/>
       <c r="G56" s="19"/>
       <c r="H56" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="I56" s="44"/>
+      <c r="I56" s="45"/>
       <c r="J56" s="19"/>
-      <c r="K56" s="45" t="s">
+      <c r="K56" s="21" t="s">
         <v>224</v>
       </c>
       <c r="L56" s="46"/>
@@ -4240,7 +4240,7 @@
       <c r="N56" s="46"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="B57" s="41"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="47"/>
       <c r="D57" s="16" t="s">
         <v>15</v>
@@ -4248,46 +4248,46 @@
       <c r="E57" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="F57" s="44"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="19"/>
       <c r="H57" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="I57" s="44"/>
+      <c r="I57" s="45"/>
       <c r="J57" s="19"/>
       <c r="K57" s="48" t="s">
         <v>228</v>
       </c>
       <c r="L57" s="49"/>
-      <c r="M57" s="50" t="s">
+      <c r="M57" s="48" t="s">
         <v>229</v>
       </c>
       <c r="N57" s="49"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="B58" s="41"/>
-      <c r="C58" s="51"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="F58" s="44"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="19"/>
       <c r="H58" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="I58" s="44"/>
+      <c r="I58" s="45"/>
       <c r="J58" s="19"/>
-      <c r="K58" s="52" t="s">
+      <c r="K58" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="L58" s="53"/>
-      <c r="M58" s="54" t="s">
+      <c r="L58" s="52"/>
+      <c r="M58" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="53"/>
+      <c r="N58" s="52"/>
     </row>
     <row r="59" ht="14.25">
       <c r="B59" s="1"/>
@@ -4305,11 +4305,11 @@
     </row>
     <row r="60" ht="14.25">
       <c r="B60" s="1"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -4318,7 +4318,7 @@
       <c r="N60" s="1"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="36" t="s">
         <v>206</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -4330,27 +4330,27 @@
       <c r="E61" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="56" t="s">
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
       <c r="K61" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L61" s="3"/>
-      <c r="M61" s="58" t="s">
+      <c r="M61" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="N61" s="59"/>
+      <c r="N61" s="57"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="39" t="s">
         <v>234</v>
       </c>
       <c r="D62" s="8" t="s">
@@ -4359,24 +4359,24 @@
       <c r="E62" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F62" s="38"/>
+      <c r="F62" s="40"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="60" t="s">
+      <c r="H62" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="I62" s="61"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="39" t="s">
+      <c r="I62" s="59"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="L62" s="40"/>
+      <c r="L62" s="41"/>
       <c r="M62" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="N62" s="40"/>
+      <c r="N62" s="41"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="B63" s="41"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
         <v>15</v>
@@ -4384,50 +4384,50 @@
       <c r="E63" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="F63" s="38"/>
+      <c r="F63" s="40"/>
       <c r="G63" s="11"/>
       <c r="H63" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="I63" s="38"/>
+      <c r="I63" s="40"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="39" t="s">
+      <c r="K63" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="L63" s="40"/>
+      <c r="L63" s="41"/>
       <c r="M63" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="N63" s="40"/>
+      <c r="N63" s="41"/>
     </row>
     <row r="64" ht="14.25">
-      <c r="B64" s="41"/>
-      <c r="C64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F64" s="38"/>
+      <c r="F64" s="40"/>
       <c r="G64" s="11"/>
       <c r="H64" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="I64" s="38"/>
+      <c r="I64" s="40"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="39" t="s">
+      <c r="K64" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="L64" s="40"/>
+      <c r="L64" s="41"/>
       <c r="M64" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="40"/>
+      <c r="N64" s="41"/>
     </row>
     <row r="65" ht="14.25">
-      <c r="B65" s="41"/>
-      <c r="C65" s="43" t="s">
+      <c r="B65" s="42"/>
+      <c r="C65" s="44" t="s">
         <v>245</v>
       </c>
       <c r="D65" s="16" t="s">
@@ -4436,14 +4436,14 @@
       <c r="E65" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="F65" s="44"/>
+      <c r="F65" s="45"/>
       <c r="G65" s="19"/>
       <c r="H65" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="I65" s="44"/>
+      <c r="I65" s="45"/>
       <c r="J65" s="19"/>
-      <c r="K65" s="45" t="s">
+      <c r="K65" s="21" t="s">
         <v>248</v>
       </c>
       <c r="L65" s="46"/>
@@ -4453,7 +4453,7 @@
       <c r="N65" s="46"/>
     </row>
     <row r="66" ht="14.25">
-      <c r="B66" s="41"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="47"/>
       <c r="D66" s="16" t="s">
         <v>15</v>
@@ -4461,14 +4461,14 @@
       <c r="E66" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="F66" s="44"/>
+      <c r="F66" s="45"/>
       <c r="G66" s="19"/>
       <c r="H66" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="I66" s="44"/>
+      <c r="I66" s="45"/>
       <c r="J66" s="19"/>
-      <c r="K66" s="45" t="s">
+      <c r="K66" s="21" t="s">
         <v>252</v>
       </c>
       <c r="L66" s="46"/>
@@ -4478,22 +4478,22 @@
       <c r="N66" s="46"/>
     </row>
     <row r="67" ht="14.25">
-      <c r="B67" s="41"/>
-      <c r="C67" s="51"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F67" s="44"/>
+      <c r="F67" s="45"/>
       <c r="G67" s="19"/>
       <c r="H67" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="I67" s="44"/>
+      <c r="I67" s="45"/>
       <c r="J67" s="19"/>
-      <c r="K67" s="45" t="s">
+      <c r="K67" s="21" t="s">
         <v>256</v>
       </c>
       <c r="L67" s="46"/>
@@ -4504,12 +4504,12 @@
     </row>
     <row r="89" ht="15" customHeight="1"/>
     <row r="98">
-      <c r="A98" s="63"/>
-      <c r="B98" s="63"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
     </row>
     <row r="99">
-      <c r="A99" s="63"/>
-      <c r="B99" s="63"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="264">
@@ -4788,7 +4788,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="100" workbookViewId="0">
       <selection activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -4798,518 +4798,518 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="64" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="64"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71" t="s">
+      <c r="K3" s="68"/>
+      <c r="L3" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="M3" s="71"/>
+      <c r="M3" s="69"/>
     </row>
     <row r="4">
-      <c r="B4" s="64"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71" t="s">
+      <c r="K4" s="68"/>
+      <c r="L4" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="M4" s="71"/>
+      <c r="M4" s="69"/>
     </row>
     <row r="5">
-      <c r="B5" s="64"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="74" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="K5" s="75"/>
-      <c r="L5" s="72" t="s">
+      <c r="K5" s="73"/>
+      <c r="L5" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6">
-      <c r="B6" s="64"/>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="69" t="s">
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71" t="s">
+      <c r="K6" s="68"/>
+      <c r="L6" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="71"/>
+      <c r="M6" s="69"/>
     </row>
     <row r="7">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80" t="s">
+      <c r="K7" s="77"/>
+      <c r="L7" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="M7" s="80"/>
+      <c r="M7" s="78"/>
     </row>
     <row r="8">
-      <c r="B8" s="64"/>
-      <c r="C8" s="76" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77" t="s">
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="78" t="s">
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80" t="s">
+      <c r="K8" s="77"/>
+      <c r="L8" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="M8" s="80"/>
+      <c r="M8" s="78"/>
     </row>
     <row r="9">
-      <c r="B9" s="64"/>
-      <c r="C9" s="72" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73" t="s">
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="74" t="s">
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="K9" s="75"/>
-      <c r="L9" s="72" t="s">
+      <c r="K9" s="73"/>
+      <c r="L9" s="70" t="s">
         <v>285</v>
       </c>
-      <c r="M9" s="72"/>
+      <c r="M9" s="70"/>
     </row>
     <row r="10">
-      <c r="B10" s="64"/>
-      <c r="C10" s="72" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73" t="s">
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="74" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="K10" s="75"/>
-      <c r="L10" s="72" t="s">
+      <c r="K10" s="73"/>
+      <c r="L10" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="M10" s="72"/>
+      <c r="M10" s="70"/>
     </row>
     <row r="11">
-      <c r="B11" s="64"/>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="71" t="s">
         <v>289</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73" t="s">
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74" t="s">
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="K11" s="75"/>
-      <c r="L11" s="72" t="s">
+      <c r="K11" s="73"/>
+      <c r="L11" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="M11" s="72"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12">
-      <c r="B12" s="64"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73" t="s">
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="74" t="s">
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="72" t="s">
+      <c r="K12" s="73"/>
+      <c r="L12" s="70" t="s">
         <v>296</v>
       </c>
-      <c r="M12" s="72"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13">
-      <c r="B13" s="64"/>
-      <c r="C13" s="76" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77" t="s">
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78" t="s">
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76" t="s">
         <v>299</v>
       </c>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80" t="s">
+      <c r="K13" s="77"/>
+      <c r="L13" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="80"/>
+      <c r="M13" s="78"/>
     </row>
     <row r="14">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69" t="s">
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71" t="s">
+      <c r="K14" s="68"/>
+      <c r="L14" s="69" t="s">
         <v>304</v>
       </c>
-      <c r="M14" s="71"/>
+      <c r="M14" s="69"/>
     </row>
     <row r="15">
-      <c r="B15" s="64"/>
-      <c r="C15" s="67" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68" t="s">
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69" t="s">
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71" t="s">
+      <c r="K15" s="68"/>
+      <c r="L15" s="69" t="s">
         <v>308</v>
       </c>
-      <c r="M15" s="71"/>
+      <c r="M15" s="69"/>
     </row>
     <row r="16">
-      <c r="B16" s="64"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="71" t="s">
         <v>309</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73" t="s">
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="74" t="s">
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="K16" s="75"/>
-      <c r="L16" s="72" t="s">
+      <c r="K16" s="73"/>
+      <c r="L16" s="70" t="s">
         <v>311</v>
       </c>
-      <c r="M16" s="72"/>
+      <c r="M16" s="70"/>
     </row>
     <row r="17">
-      <c r="B17" s="64"/>
-      <c r="C17" s="72" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="71" t="s">
         <v>312</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73" t="s">
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71" t="s">
         <v>313</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="74" t="s">
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="K17" s="75"/>
-      <c r="L17" s="72" t="s">
+      <c r="K17" s="73"/>
+      <c r="L17" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="M17" s="72"/>
+      <c r="M17" s="70"/>
     </row>
     <row r="18">
-      <c r="B18" s="64"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68" t="s">
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69" t="s">
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67" t="s">
         <v>318</v>
       </c>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71" t="s">
+      <c r="K18" s="68"/>
+      <c r="L18" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="71"/>
+      <c r="M18" s="69"/>
     </row>
     <row r="19">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77" t="s">
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75" t="s">
         <v>321</v>
       </c>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78" t="s">
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="76" t="s">
         <v>322</v>
       </c>
-      <c r="K19" s="79"/>
-      <c r="L19" s="80" t="s">
+      <c r="K19" s="77"/>
+      <c r="L19" s="78" t="s">
         <v>323</v>
       </c>
-      <c r="M19" s="80"/>
+      <c r="M19" s="78"/>
     </row>
     <row r="20">
-      <c r="B20" s="64"/>
-      <c r="C20" s="76" t="s">
+      <c r="B20" s="62"/>
+      <c r="C20" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="75" t="s">
         <v>324</v>
       </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77" t="s">
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75" t="s">
         <v>325</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="78" t="s">
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="K20" s="79"/>
-      <c r="L20" s="80" t="s">
+      <c r="K20" s="77"/>
+      <c r="L20" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="M20" s="80"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21">
-      <c r="B21" s="64"/>
-      <c r="C21" s="72" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73" t="s">
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="74" t="s">
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="K21" s="75"/>
-      <c r="L21" s="72" t="s">
+      <c r="K21" s="73"/>
+      <c r="L21" s="70" t="s">
         <v>329</v>
       </c>
-      <c r="M21" s="72"/>
+      <c r="M21" s="70"/>
     </row>
     <row r="22">
-      <c r="B22" s="64"/>
-      <c r="C22" s="76" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="75" t="s">
         <v>330</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77" t="s">
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78" t="s">
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76" t="s">
         <v>332</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="80" t="s">
+      <c r="K22" s="77"/>
+      <c r="L22" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="80"/>
+      <c r="M22" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -5422,324 +5422,324 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82" t="s">
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83" t="s">
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="82" t="s">
+      <c r="K2" s="82"/>
+      <c r="L2" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="82"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="84" t="s">
         <v>334</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="86" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="84" t="s">
         <v>335</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="72" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="M3" s="72"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="70" t="s">
+        <v>337</v>
+      </c>
+      <c r="M3" s="70"/>
     </row>
     <row r="4">
-      <c r="B4" s="85"/>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="89" t="s">
-        <v>337</v>
-      </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89" t="s">
+      <c r="D4" s="88" t="s">
         <v>338</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="90" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88" t="s">
         <v>339</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="89" t="s">
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="M4" s="89"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="88" t="s">
+        <v>341</v>
+      </c>
+      <c r="M4" s="88"/>
     </row>
     <row r="5">
-      <c r="B5" s="85"/>
-      <c r="C5" s="88" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="89" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89" t="s">
+      <c r="D5" s="88" t="s">
         <v>342</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90" t="s">
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88" t="s">
         <v>343</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="89" t="s">
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89" t="s">
+        <v>344</v>
+      </c>
+      <c r="K5" s="90"/>
+      <c r="L5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="89"/>
+      <c r="M5" s="88"/>
     </row>
     <row r="6">
-      <c r="B6" s="85" t="s">
-        <v>344</v>
-      </c>
-      <c r="C6" s="92" t="s">
+      <c r="B6" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="92" t="s">
-        <v>345</v>
-      </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92" t="s">
+      <c r="D6" s="91" t="s">
         <v>346</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="93" t="s">
-        <v>339</v>
-      </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="92" t="s">
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91" t="s">
         <v>347</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92" t="s">
+        <v>340</v>
+      </c>
+      <c r="K6" s="93"/>
+      <c r="L6" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="M6" s="91"/>
     </row>
     <row r="7">
-      <c r="B7" s="85"/>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="92" t="s">
-        <v>348</v>
-      </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92" t="s">
+      <c r="D7" s="91" t="s">
         <v>349</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="93" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="92" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="92" t="s">
         <v>351</v>
       </c>
-      <c r="M7" s="92"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="91" t="s">
+        <v>352</v>
+      </c>
+      <c r="M7" s="91"/>
     </row>
     <row r="8">
-      <c r="B8" s="85"/>
-      <c r="C8" s="92" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="92" t="s">
-        <v>352</v>
-      </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92" t="s">
+      <c r="D8" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="93" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="92" t="s">
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="M8" s="92"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="M8" s="91"/>
     </row>
     <row r="9">
-      <c r="B9" s="85"/>
-      <c r="C9" s="92" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="92" t="s">
-        <v>356</v>
-      </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92" t="s">
+      <c r="D9" s="91" t="s">
         <v>357</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="93" t="s">
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91" t="s">
         <v>358</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="92" t="s">
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="K9" s="93"/>
+      <c r="L9" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="92"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10">
-      <c r="B10" s="85" t="s">
-        <v>359</v>
-      </c>
-      <c r="C10" s="72" t="s">
+      <c r="B10" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="72" t="s">
-        <v>360</v>
-      </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72" t="s">
+      <c r="D10" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="86" t="s">
-        <v>335</v>
-      </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="72" t="s">
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="M10" s="72"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="M10" s="70"/>
     </row>
     <row r="11">
-      <c r="B11" s="85"/>
-      <c r="C11" s="88" t="s">
+      <c r="B11" s="83"/>
+      <c r="C11" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="88" t="s">
-        <v>363</v>
-      </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88" t="s">
+      <c r="D11" s="87" t="s">
         <v>364</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="90" t="s">
-        <v>350</v>
-      </c>
-      <c r="K11" s="91"/>
-      <c r="L11" s="88" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87" t="s">
         <v>365</v>
       </c>
-      <c r="M11" s="88"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="K11" s="90"/>
+      <c r="L11" s="87" t="s">
+        <v>366</v>
+      </c>
+      <c r="M11" s="87"/>
     </row>
     <row r="12">
-      <c r="B12" s="85"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72" t="s">
+      <c r="D12" s="84" t="s">
         <v>367</v>
       </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="86" t="s">
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="84" t="s">
         <v>368</v>
       </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="72" t="s">
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="M12" s="72"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="70" t="s">
+        <v>370</v>
+      </c>
+      <c r="M12" s="70"/>
     </row>
     <row r="13">
-      <c r="B13" s="85"/>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="72" t="s">
-        <v>370</v>
-      </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72" t="s">
+      <c r="D13" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="86" t="s">
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="84" t="s">
         <v>372</v>
       </c>
-      <c r="K13" s="87"/>
-      <c r="L13" s="72" t="s">
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="85" t="s">
         <v>373</v>
       </c>
-      <c r="M13" s="72"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="M13" s="70"/>
     </row>
     <row r="14">
-      <c r="B14" s="85"/>
-      <c r="C14" s="88" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="88" t="s">
-        <v>374</v>
-      </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88" t="s">
+      <c r="D14" s="87" t="s">
         <v>375</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="90" t="s">
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87" t="s">
         <v>376</v>
       </c>
-      <c r="K14" s="91"/>
-      <c r="L14" s="88" t="s">
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="89" t="s">
+        <v>377</v>
+      </c>
+      <c r="K14" s="90"/>
+      <c r="L14" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="88"/>
+      <c r="M14" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -5819,128 +5819,128 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96" t="s">
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97" t="s">
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96" t="s">
+      <c r="K2" s="97"/>
+      <c r="L2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="96"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3">
-      <c r="B3" s="95" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="94" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="72" t="s">
-        <v>378</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72" t="s">
+      <c r="D3" s="84" t="s">
         <v>379</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="86" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="84" t="s">
         <v>380</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="72" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="M3" s="72"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="M3" s="70"/>
     </row>
     <row r="4">
-      <c r="B4" s="95"/>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="72" t="s">
-        <v>382</v>
-      </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72" t="s">
+      <c r="D4" s="84" t="s">
         <v>383</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="86" t="s">
-        <v>380</v>
-      </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="72" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="84" t="s">
         <v>384</v>
       </c>
-      <c r="M4" s="72"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="K4" s="86"/>
+      <c r="L4" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="M4" s="70"/>
     </row>
     <row r="5">
-      <c r="B5" s="95"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="94"/>
+      <c r="C5" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72" t="s">
+      <c r="D5" s="84" t="s">
         <v>386</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="86" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="84" t="s">
         <v>387</v>
       </c>
-      <c r="K5" s="87"/>
-      <c r="L5" s="72" t="s">
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="85" t="s">
         <v>388</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="M5" s="70"/>
     </row>
     <row r="6">
-      <c r="B6" s="95"/>
-      <c r="C6" s="99" t="s">
+      <c r="B6" s="94"/>
+      <c r="C6" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="99" t="s">
-        <v>389</v>
-      </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99" t="s">
+      <c r="D6" s="98" t="s">
         <v>390</v>
       </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98" t="s">
         <v>391</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="99" t="s">
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99" t="s">
+        <v>392</v>
+      </c>
+      <c r="K6" s="100"/>
+      <c r="L6" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="99"/>
+      <c r="M6" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5986,104 +5986,104 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="103" t="s">
+      <c r="K2" s="104"/>
+      <c r="L2" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="103"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3">
-      <c r="B3" s="102" t="s">
-        <v>392</v>
-      </c>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="101" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="72" t="s">
-        <v>393</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72" t="s">
+      <c r="D3" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="86" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="72" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="85" t="s">
         <v>396</v>
       </c>
-      <c r="M3" s="72"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="M3" s="70"/>
     </row>
     <row r="4">
-      <c r="B4" s="102"/>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="72" t="s">
-        <v>397</v>
-      </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72" t="s">
+      <c r="D4" s="70" t="s">
         <v>398</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="86" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="84" t="s">
         <v>399</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="72" t="s">
-        <v>351</v>
-      </c>
-      <c r="M4" s="72"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="85" t="s">
+        <v>400</v>
+      </c>
+      <c r="K4" s="86"/>
+      <c r="L4" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="M4" s="70"/>
     </row>
     <row r="5">
-      <c r="B5" s="102"/>
-      <c r="C5" s="106" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="106" t="s">
-        <v>400</v>
-      </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106" t="s">
+      <c r="D5" s="105" t="s">
         <v>401</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107" t="s">
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105" t="s">
         <v>402</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="106" t="s">
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="106" t="s">
+        <v>403</v>
+      </c>
+      <c r="K5" s="107"/>
+      <c r="L5" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="106"/>
+      <c r="M5" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -6125,178 +6125,178 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110" t="s">
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="111" t="s">
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="112"/>
-      <c r="L2" s="110" t="s">
+      <c r="K2" s="111"/>
+      <c r="L2" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="110"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3">
-      <c r="B3" s="109" t="s">
-        <v>403</v>
-      </c>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="108" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="72" t="s">
-        <v>404</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72" t="s">
+      <c r="D3" s="70" t="s">
         <v>405</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="86" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="84" t="s">
+        <v>406</v>
+      </c>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="M3" s="72"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="M3" s="70"/>
     </row>
     <row r="4">
-      <c r="B4" s="109"/>
-      <c r="C4" s="113" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="113" t="s">
-        <v>407</v>
-      </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113" t="s">
+      <c r="D4" s="112" t="s">
         <v>408</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="114" t="s">
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112" t="s">
         <v>409</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="113" t="s">
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="M4" s="113"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="112" t="s">
+        <v>411</v>
+      </c>
+      <c r="M4" s="112"/>
     </row>
     <row r="5">
-      <c r="B5" s="109"/>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="112" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112" t="s">
+        <v>413</v>
+      </c>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113" t="s">
+        <v>414</v>
+      </c>
+      <c r="K5" s="114"/>
+      <c r="L5" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="112"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="108" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="115" t="s">
+        <v>416</v>
+      </c>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115" t="s">
+        <v>409</v>
+      </c>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116" t="s">
+        <v>417</v>
+      </c>
+      <c r="K6" s="117"/>
+      <c r="L6" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113" t="s">
-        <v>412</v>
-      </c>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114" t="s">
-        <v>413</v>
-      </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="113" t="s">
+      <c r="M6" s="115"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="108"/>
+      <c r="C7" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70" t="s">
+        <v>419</v>
+      </c>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="K7" s="86"/>
+      <c r="L7" s="70" t="s">
+        <v>420</v>
+      </c>
+      <c r="M7" s="70"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="108"/>
+      <c r="C8" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="115" t="s">
+        <v>421</v>
+      </c>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115" t="s">
+        <v>422</v>
+      </c>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116" t="s">
+        <v>423</v>
+      </c>
+      <c r="K8" s="117"/>
+      <c r="L8" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="113"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="109" t="s">
-        <v>414</v>
-      </c>
-      <c r="C6" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="116" t="s">
-        <v>415</v>
-      </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116" t="s">
-        <v>408</v>
-      </c>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117" t="s">
-        <v>416</v>
-      </c>
-      <c r="K6" s="118"/>
-      <c r="L6" s="116" t="s">
-        <v>410</v>
-      </c>
-      <c r="M6" s="116"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="109"/>
-      <c r="C7" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72" t="s">
-        <v>418</v>
-      </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="K7" s="87"/>
-      <c r="L7" s="72" t="s">
-        <v>419</v>
-      </c>
-      <c r="M7" s="72"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="109"/>
-      <c r="C8" s="116" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117" t="s">
-        <v>422</v>
-      </c>
-      <c r="K8" s="118"/>
-      <c r="L8" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="116"/>
+      <c r="M8" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -6353,104 +6353,104 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120" t="s">
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="122"/>
-      <c r="L2" s="120" t="s">
+      <c r="K2" s="121"/>
+      <c r="L2" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="120"/>
+      <c r="M2" s="119"/>
     </row>
     <row r="3">
-      <c r="B3" s="119" t="s">
-        <v>423</v>
-      </c>
-      <c r="C3" s="123" t="s">
+      <c r="B3" s="118" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="123" t="s">
-        <v>424</v>
-      </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123" t="s">
+      <c r="D3" s="122" t="s">
         <v>425</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124" t="s">
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122" t="s">
         <v>426</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="123" t="s">
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="123" t="s">
         <v>427</v>
       </c>
-      <c r="M3" s="123"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="122" t="s">
+        <v>428</v>
+      </c>
+      <c r="M3" s="122"/>
     </row>
     <row r="4">
-      <c r="B4" s="119"/>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="72" t="s">
-        <v>428</v>
-      </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72" t="s">
+      <c r="D4" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="86" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70" t="s">
         <v>430</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="72" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="85" t="s">
         <v>431</v>
       </c>
-      <c r="M4" s="72"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="M4" s="70"/>
     </row>
     <row r="5">
-      <c r="B5" s="119"/>
-      <c r="C5" s="123" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="123" t="s">
-        <v>432</v>
-      </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123" t="s">
+      <c r="D5" s="122" t="s">
         <v>433</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124" t="s">
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122" t="s">
         <v>434</v>
       </c>
-      <c r="K5" s="125"/>
-      <c r="L5" s="123" t="s">
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123" t="s">
+        <v>435</v>
+      </c>
+      <c r="K5" s="124"/>
+      <c r="L5" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="123"/>
+      <c r="M5" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="17">
